--- a/CPU-Guide/31连接表.xlsx
+++ b/CPU-Guide/31连接表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPU\StaticPipeline\CPU-Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C43CE7-0C2E-4ED2-9289-2B7858A16A08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DF702D-2ECC-43F3-A65D-803E0F2C6E10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="139">
   <si>
     <t>表格 1</t>
   </si>
@@ -489,7 +489,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +653,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -684,44 +690,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,14 +711,53 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,11 +1921,11 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="S54" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T66" sqref="T66:V66"/>
+      <selection pane="bottomRight" activeCell="AD2" sqref="AD2:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1924,143 +1936,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="30.95" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
     </row>
     <row r="2" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="13" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="13" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="13" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="33" t="s">
         <v>21</v>
       </c>
       <c r="HX2"/>
@@ -2090,17 +2102,17 @@
       <c r="IV2"/>
     </row>
     <row r="3" spans="1:256" ht="20.25" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2113,7 +2125,7 @@
       <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2150,20 +2162,20 @@
       <c r="X3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
       <c r="AB3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
       <c r="HX3"/>
       <c r="HY3"/>
       <c r="HZ3"/>
@@ -2194,7 +2206,7 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2278,7 +2290,7 @@
       <c r="IV4"/>
     </row>
     <row r="5" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2361,7 +2373,7 @@
       <c r="IV5"/>
     </row>
     <row r="6" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A6" s="18"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
@@ -2434,7 +2446,7 @@
       <c r="IV6"/>
     </row>
     <row r="7" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2517,7 +2529,7 @@
       <c r="IV7"/>
     </row>
     <row r="8" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
@@ -2590,7 +2602,7 @@
       <c r="IV8"/>
     </row>
     <row r="9" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2673,7 +2685,7 @@
       <c r="IV9"/>
     </row>
     <row r="10" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
@@ -2746,7 +2758,7 @@
       <c r="IV10"/>
     </row>
     <row r="11" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2829,7 +2841,7 @@
       <c r="IV11"/>
     </row>
     <row r="12" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A12" s="21"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
@@ -2908,7 +2920,7 @@
       <c r="IV12"/>
     </row>
     <row r="13" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
@@ -2977,7 +2989,7 @@
       <c r="IV13"/>
     </row>
     <row r="14" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -3060,7 +3072,7 @@
       <c r="IV14"/>
     </row>
     <row r="15" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
@@ -3139,7 +3151,7 @@
       <c r="IV15"/>
     </row>
     <row r="16" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
@@ -3208,7 +3220,7 @@
       <c r="IV16"/>
     </row>
     <row r="17" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3285,7 +3297,7 @@
       <c r="IV17"/>
     </row>
     <row r="18" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
@@ -3358,7 +3370,7 @@
       <c r="IV18"/>
     </row>
     <row r="19" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="23" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3441,7 +3453,7 @@
       <c r="IV19"/>
     </row>
     <row r="20" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
@@ -3514,7 +3526,7 @@
       <c r="IV20"/>
     </row>
     <row r="21" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
@@ -3587,7 +3599,7 @@
       <c r="IV21"/>
     </row>
     <row r="22" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3670,7 +3682,7 @@
       <c r="IV22"/>
     </row>
     <row r="23" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
@@ -3743,7 +3755,7 @@
       <c r="IV23"/>
     </row>
     <row r="24" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3826,7 +3838,7 @@
       <c r="IV24"/>
     </row>
     <row r="25" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
@@ -3899,7 +3911,7 @@
       <c r="IV25"/>
     </row>
     <row r="26" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3982,7 +3994,7 @@
       <c r="IV26"/>
     </row>
     <row r="27" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
@@ -4055,7 +4067,7 @@
       <c r="IV27"/>
     </row>
     <row r="28" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4138,7 +4150,7 @@
       <c r="IV28"/>
     </row>
     <row r="29" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8" t="s">
         <v>50</v>
       </c>
@@ -4211,7 +4223,7 @@
       <c r="IV29"/>
     </row>
     <row r="30" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4294,7 +4306,7 @@
       <c r="IV30"/>
     </row>
     <row r="31" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>50</v>
       </c>
@@ -4367,7 +4379,7 @@
       <c r="IV31"/>
     </row>
     <row r="32" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -4440,7 +4452,7 @@
       <c r="IV32"/>
     </row>
     <row r="33" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4515,7 +4527,7 @@
       <c r="IV33"/>
     </row>
     <row r="34" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
@@ -4586,7 +4598,7 @@
       <c r="IV34"/>
     </row>
     <row r="35" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -4669,7 +4681,7 @@
       <c r="IV35"/>
     </row>
     <row r="36" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
@@ -4742,7 +4754,7 @@
       <c r="IV36"/>
     </row>
     <row r="37" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -4825,7 +4837,7 @@
       <c r="IV37"/>
     </row>
     <row r="38" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A38" s="18"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
@@ -4898,7 +4910,7 @@
       <c r="IV38"/>
     </row>
     <row r="39" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -4981,7 +4993,7 @@
       <c r="IV39"/>
     </row>
     <row r="40" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
@@ -5054,7 +5066,7 @@
       <c r="IV40"/>
     </row>
     <row r="41" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -5127,7 +5139,7 @@
       <c r="IV41"/>
     </row>
     <row r="42" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -5210,7 +5222,7 @@
       <c r="IV42"/>
     </row>
     <row r="43" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A43" s="18"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
@@ -5283,7 +5295,7 @@
       <c r="IV43"/>
     </row>
     <row r="44" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -5366,7 +5378,7 @@
       <c r="IV44"/>
     </row>
     <row r="45" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="8" t="s">
         <v>50</v>
       </c>
@@ -5439,7 +5451,7 @@
       <c r="IV45"/>
     </row>
     <row r="46" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -5522,7 +5534,7 @@
       <c r="IV46"/>
     </row>
     <row r="47" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A47" s="18"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
@@ -5595,7 +5607,7 @@
       <c r="IV47"/>
     </row>
     <row r="48" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -5678,7 +5690,7 @@
       <c r="IV48"/>
     </row>
     <row r="49" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A49" s="18"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="8" t="s">
         <v>50</v>
       </c>
@@ -5751,7 +5763,7 @@
       <c r="IV49"/>
     </row>
     <row r="50" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5834,7 +5846,7 @@
       <c r="IV50"/>
     </row>
     <row r="51" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A51" s="18"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -5907,7 +5919,7 @@
       <c r="IV51"/>
     </row>
     <row r="52" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -5990,7 +6002,7 @@
       <c r="IV52"/>
     </row>
     <row r="53" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A53" s="18"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
@@ -6063,7 +6075,7 @@
       <c r="IV53"/>
     </row>
     <row r="54" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -6146,7 +6158,7 @@
       <c r="IV54"/>
     </row>
     <row r="55" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A55" s="18"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
@@ -6219,7 +6231,7 @@
       <c r="IV55"/>
     </row>
     <row r="56" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -6302,7 +6314,7 @@
       <c r="IV56"/>
     </row>
     <row r="57" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A57" s="18"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
@@ -6375,7 +6387,7 @@
       <c r="IV57"/>
     </row>
     <row r="58" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -6458,7 +6470,7 @@
       <c r="IV58"/>
     </row>
     <row r="59" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A59" s="18"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -6531,7 +6543,7 @@
       <c r="IV59"/>
     </row>
     <row r="60" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -6614,7 +6626,7 @@
       <c r="IV60"/>
     </row>
     <row r="61" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A61" s="18"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="8" t="s">
         <v>50</v>
       </c>
@@ -6687,7 +6699,7 @@
       <c r="IV61"/>
     </row>
     <row r="62" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -6770,7 +6782,7 @@
       <c r="IV62"/>
     </row>
     <row r="63" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A63" s="18"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="8" t="s">
         <v>50</v>
       </c>
@@ -6843,7 +6855,7 @@
       <c r="IV63"/>
     </row>
     <row r="64" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -6926,7 +6938,7 @@
       <c r="IV64"/>
     </row>
     <row r="65" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A65" s="18"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="8" t="s">
         <v>50</v>
       </c>
@@ -6999,7 +7011,7 @@
       <c r="IV65"/>
     </row>
     <row r="66" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="23" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -7082,7 +7094,7 @@
       <c r="IV66"/>
     </row>
     <row r="67" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A67" s="18"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="8" t="s">
         <v>50</v>
       </c>
@@ -7211,18 +7223,22 @@
     <row r="122" ht="22.35" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A1:BG1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
@@ -7239,29 +7255,25 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:BG1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -7306,287 +7318,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="31"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="23"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
-      <c r="R1" s="23"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="31"/>
-      <c r="T1" s="23"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
-      <c r="W1" s="23"/>
+      <c r="W1" s="29"/>
       <c r="X1" s="31"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
       <c r="AC1" s="31"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7608,165 +7620,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7816,7 +7828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD65067-36B5-4773-945A-2DA6E46279FB}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
@@ -7829,17 +7841,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
@@ -7851,7 +7863,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -7865,7 +7877,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -7879,7 +7891,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -7893,17 +7905,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="9"/>
@@ -7915,7 +7927,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -7929,7 +7941,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -7943,7 +7955,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -7957,7 +7969,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -7971,7 +7983,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -7985,7 +7997,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -7999,17 +8011,17 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -8023,7 +8035,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -8037,7 +8049,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -8051,12 +8063,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -8070,7 +8082,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -8084,7 +8096,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -8098,7 +8110,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -8112,7 +8124,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -8126,7 +8138,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -8140,7 +8152,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -8154,7 +8166,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -8168,7 +8180,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -8182,7 +8194,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -8196,7 +8208,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -8210,7 +8222,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -8224,7 +8236,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -8297,17 +8309,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
@@ -8319,37 +8331,37 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -8361,22 +8373,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -8390,102 +8402,102 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8549,17 +8561,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
@@ -8571,7 +8583,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -8585,7 +8597,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -8599,7 +8611,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -8613,17 +8625,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -8637,7 +8649,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -8651,7 +8663,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -8665,7 +8677,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -8679,7 +8691,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -8693,12 +8705,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -8712,17 +8724,17 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -8736,7 +8748,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -8750,7 +8762,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -8764,12 +8776,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -8783,7 +8795,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -8797,7 +8809,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -8811,7 +8823,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -8825,7 +8837,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -8839,7 +8851,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -8853,7 +8865,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -8867,7 +8879,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -8881,7 +8893,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -8895,7 +8907,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -8909,7 +8921,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -8923,7 +8935,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -8937,7 +8949,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -8990,5 +9002,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CPU-Guide/31连接表.xlsx
+++ b/CPU-Guide/31连接表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPU\StaticPipeline\CPU-Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DF702D-2ECC-43F3-A65D-803E0F2C6E10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F27B35-F2EA-4CBC-921C-AD49073B366B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="139">
   <si>
     <t>表格 1</t>
   </si>
@@ -1921,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AD2" sqref="AD2:AH3"/>
@@ -8297,7 +8297,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/CPU-Guide/31连接表.xlsx
+++ b/CPU-Guide/31连接表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPU\StaticPipeline\CPU-Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F27B35-F2EA-4CBC-921C-AD49073B366B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9039E-83B4-404E-BE31-F700273ACB94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1921,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AD2" sqref="AD2:AH3"/>
@@ -7289,7 +7289,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7611,7 +7611,7 @@
   <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:XFD1048576"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7828,8 +7828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD65067-36B5-4773-945A-2DA6E46279FB}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8296,8 +8296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AE0BE9-9FF5-4E6F-A46E-994482D4AF13}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/CPU-Guide/31连接表.xlsx
+++ b/CPU-Guide/31连接表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPU\StaticPipeline\CPU-Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Git/CPU54-Static-Pipeline/CPU-Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9039E-83B4-404E-BE31-F700273ACB94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8A22B4-E2EC-E547-85D1-74925FD76BEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16060" windowHeight="28800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -450,6 +450,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -653,7 +656,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -714,13 +717,25 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,12 +750,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,11 +762,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1921,158 +1927,158 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2:AH3"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="30.95" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:256" ht="31" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-    </row>
-    <row r="2" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+    </row>
+    <row r="2" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="20" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="20" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="20" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="HX2"/>
@@ -2171,11 +2177,11 @@
       <c r="AC3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
       <c r="HX3"/>
       <c r="HY3"/>
       <c r="HZ3"/>
@@ -2289,8 +2295,8 @@
       <c r="IU4"/>
       <c r="IV4"/>
     </row>
-    <row r="5" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2372,8 +2378,8 @@
       <c r="IU5"/>
       <c r="IV5"/>
     </row>
-    <row r="6" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
@@ -2445,8 +2451,8 @@
       <c r="IU6"/>
       <c r="IV6"/>
     </row>
-    <row r="7" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2528,8 +2534,8 @@
       <c r="IU7"/>
       <c r="IV7"/>
     </row>
-    <row r="8" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A8" s="28"/>
       <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
@@ -2601,8 +2607,8 @@
       <c r="IU8"/>
       <c r="IV8"/>
     </row>
-    <row r="9" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2684,8 +2690,8 @@
       <c r="IU9"/>
       <c r="IV9"/>
     </row>
-    <row r="10" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A10" s="28"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
@@ -2757,8 +2763,8 @@
       <c r="IU10"/>
       <c r="IV10"/>
     </row>
-    <row r="11" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2840,8 +2846,8 @@
       <c r="IU11"/>
       <c r="IV11"/>
     </row>
-    <row r="12" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
@@ -2919,8 +2925,8 @@
       <c r="IU12"/>
       <c r="IV12"/>
     </row>
-    <row r="13" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
@@ -2988,8 +2994,8 @@
       <c r="IU13"/>
       <c r="IV13"/>
     </row>
-    <row r="14" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -3071,8 +3077,8 @@
       <c r="IU14"/>
       <c r="IV14"/>
     </row>
-    <row r="15" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
@@ -3150,8 +3156,8 @@
       <c r="IU15"/>
       <c r="IV15"/>
     </row>
-    <row r="16" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
@@ -3219,8 +3225,8 @@
       <c r="IU16"/>
       <c r="IV16"/>
     </row>
-    <row r="17" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A17" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3296,8 +3302,8 @@
       <c r="IU17"/>
       <c r="IV17"/>
     </row>
-    <row r="18" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A18" s="28"/>
       <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
@@ -3369,8 +3375,8 @@
       <c r="IU18"/>
       <c r="IV18"/>
     </row>
-    <row r="19" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A19" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3452,8 +3458,8 @@
       <c r="IU19"/>
       <c r="IV19"/>
     </row>
-    <row r="20" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A20" s="28"/>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
@@ -3525,8 +3531,8 @@
       <c r="IU20"/>
       <c r="IV20"/>
     </row>
-    <row r="21" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A21" s="28"/>
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
@@ -3598,8 +3604,8 @@
       <c r="IU21"/>
       <c r="IV21"/>
     </row>
-    <row r="22" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A22" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3681,8 +3687,8 @@
       <c r="IU22"/>
       <c r="IV22"/>
     </row>
-    <row r="23" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A23" s="28"/>
       <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
@@ -3754,8 +3760,8 @@
       <c r="IU23"/>
       <c r="IV23"/>
     </row>
-    <row r="24" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A24" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3837,8 +3843,8 @@
       <c r="IU24"/>
       <c r="IV24"/>
     </row>
-    <row r="25" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A25" s="28"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
@@ -3910,8 +3916,8 @@
       <c r="IU25"/>
       <c r="IV25"/>
     </row>
-    <row r="26" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A26" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3993,8 +3999,8 @@
       <c r="IU26"/>
       <c r="IV26"/>
     </row>
-    <row r="27" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A27" s="28"/>
       <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
@@ -4066,8 +4072,8 @@
       <c r="IU27"/>
       <c r="IV27"/>
     </row>
-    <row r="28" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A28" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4149,8 +4155,8 @@
       <c r="IU28"/>
       <c r="IV28"/>
     </row>
-    <row r="29" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A29" s="28"/>
       <c r="B29" s="8" t="s">
         <v>50</v>
       </c>
@@ -4222,8 +4228,8 @@
       <c r="IU29"/>
       <c r="IV29"/>
     </row>
-    <row r="30" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A30" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4305,8 +4311,8 @@
       <c r="IU30"/>
       <c r="IV30"/>
     </row>
-    <row r="31" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A31" s="28"/>
       <c r="B31" s="8" t="s">
         <v>50</v>
       </c>
@@ -4378,7 +4384,7 @@
       <c r="IU31"/>
       <c r="IV31"/>
     </row>
-    <row r="32" spans="1:256" ht="22.35" customHeight="1">
+    <row r="32" spans="1:256" ht="22.25" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
@@ -4451,8 +4457,8 @@
       <c r="IU32"/>
       <c r="IV32"/>
     </row>
-    <row r="33" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A33" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4526,8 +4532,8 @@
       <c r="IU33"/>
       <c r="IV33"/>
     </row>
-    <row r="34" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A34" s="26"/>
+    <row r="34" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A34" s="30"/>
       <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
@@ -4597,8 +4603,8 @@
       <c r="IU34"/>
       <c r="IV34"/>
     </row>
-    <row r="35" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A35" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -4680,8 +4686,8 @@
       <c r="IU35"/>
       <c r="IV35"/>
     </row>
-    <row r="36" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A36" s="28"/>
       <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
@@ -4753,8 +4759,8 @@
       <c r="IU36"/>
       <c r="IV36"/>
     </row>
-    <row r="37" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A37" s="27" t="s">
         <v>103</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -4836,8 +4842,8 @@
       <c r="IU37"/>
       <c r="IV37"/>
     </row>
-    <row r="38" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A38" s="28"/>
       <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
@@ -4909,8 +4915,8 @@
       <c r="IU38"/>
       <c r="IV38"/>
     </row>
-    <row r="39" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A39" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -4992,8 +4998,8 @@
       <c r="IU39"/>
       <c r="IV39"/>
     </row>
-    <row r="40" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
@@ -5065,7 +5071,7 @@
       <c r="IU40"/>
       <c r="IV40"/>
     </row>
-    <row r="41" spans="1:256" ht="22.35" customHeight="1">
+    <row r="41" spans="1:256" ht="22.25" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>107</v>
       </c>
@@ -5138,8 +5144,8 @@
       <c r="IU41"/>
       <c r="IV41"/>
     </row>
-    <row r="42" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A42" s="23" t="s">
+    <row r="42" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A42" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -5221,8 +5227,8 @@
       <c r="IU42"/>
       <c r="IV42"/>
     </row>
-    <row r="43" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
@@ -5294,8 +5300,8 @@
       <c r="IU43"/>
       <c r="IV43"/>
     </row>
-    <row r="44" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A44" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -5377,8 +5383,8 @@
       <c r="IU44"/>
       <c r="IV44"/>
     </row>
-    <row r="45" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>50</v>
       </c>
@@ -5450,8 +5456,8 @@
       <c r="IU45"/>
       <c r="IV45"/>
     </row>
-    <row r="46" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A46" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -5533,8 +5539,8 @@
       <c r="IU46"/>
       <c r="IV46"/>
     </row>
-    <row r="47" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A47" s="24"/>
+    <row r="47" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A47" s="28"/>
       <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
@@ -5606,8 +5612,8 @@
       <c r="IU47"/>
       <c r="IV47"/>
     </row>
-    <row r="48" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A48" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -5689,8 +5695,8 @@
       <c r="IU48"/>
       <c r="IV48"/>
     </row>
-    <row r="49" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A49" s="28"/>
       <c r="B49" s="8" t="s">
         <v>50</v>
       </c>
@@ -5762,8 +5768,8 @@
       <c r="IU49"/>
       <c r="IV49"/>
     </row>
-    <row r="50" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A50" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5845,8 +5851,8 @@
       <c r="IU50"/>
       <c r="IV50"/>
     </row>
-    <row r="51" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A51" s="24"/>
+    <row r="51" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A51" s="28"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -5918,8 +5924,8 @@
       <c r="IU51"/>
       <c r="IV51"/>
     </row>
-    <row r="52" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A52" s="27" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -6001,8 +6007,8 @@
       <c r="IU52"/>
       <c r="IV52"/>
     </row>
-    <row r="53" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A53" s="24"/>
+    <row r="53" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A53" s="28"/>
       <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
@@ -6074,8 +6080,8 @@
       <c r="IU53"/>
       <c r="IV53"/>
     </row>
-    <row r="54" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A54" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -6157,8 +6163,8 @@
       <c r="IU54"/>
       <c r="IV54"/>
     </row>
-    <row r="55" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A55" s="24"/>
+    <row r="55" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A55" s="28"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
@@ -6230,8 +6236,8 @@
       <c r="IU55"/>
       <c r="IV55"/>
     </row>
-    <row r="56" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A56" s="23" t="s">
+    <row r="56" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A56" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -6313,8 +6319,8 @@
       <c r="IU56"/>
       <c r="IV56"/>
     </row>
-    <row r="57" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A57" s="24"/>
+    <row r="57" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A57" s="28"/>
       <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
@@ -6386,8 +6392,8 @@
       <c r="IU57"/>
       <c r="IV57"/>
     </row>
-    <row r="58" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A58" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -6469,8 +6475,8 @@
       <c r="IU58"/>
       <c r="IV58"/>
     </row>
-    <row r="59" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A59" s="24"/>
+    <row r="59" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A59" s="28"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -6542,8 +6548,8 @@
       <c r="IU59"/>
       <c r="IV59"/>
     </row>
-    <row r="60" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A60" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -6625,8 +6631,8 @@
       <c r="IU60"/>
       <c r="IV60"/>
     </row>
-    <row r="61" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A61" s="24"/>
+    <row r="61" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A61" s="28"/>
       <c r="B61" s="8" t="s">
         <v>50</v>
       </c>
@@ -6698,8 +6704,8 @@
       <c r="IU61"/>
       <c r="IV61"/>
     </row>
-    <row r="62" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A62" s="23" t="s">
+    <row r="62" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A62" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -6781,8 +6787,8 @@
       <c r="IU62"/>
       <c r="IV62"/>
     </row>
-    <row r="63" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A63" s="24"/>
+    <row r="63" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A63" s="28"/>
       <c r="B63" s="8" t="s">
         <v>50</v>
       </c>
@@ -6854,8 +6860,8 @@
       <c r="IU63"/>
       <c r="IV63"/>
     </row>
-    <row r="64" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A64" s="23" t="s">
+    <row r="64" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A64" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -6937,8 +6943,8 @@
       <c r="IU64"/>
       <c r="IV64"/>
     </row>
-    <row r="65" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A65" s="24"/>
+    <row r="65" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A65" s="28"/>
       <c r="B65" s="8" t="s">
         <v>50</v>
       </c>
@@ -7010,8 +7016,8 @@
       <c r="IU65"/>
       <c r="IV65"/>
     </row>
-    <row r="66" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A66" s="23" t="s">
+    <row r="66" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A66" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -7093,8 +7099,8 @@
       <c r="IU66"/>
       <c r="IV66"/>
     </row>
-    <row r="67" spans="1:256" ht="22.35" customHeight="1">
-      <c r="A67" s="24"/>
+    <row r="67" spans="1:256" ht="22.25" customHeight="1">
+      <c r="A67" s="28"/>
       <c r="B67" s="8" t="s">
         <v>50</v>
       </c>
@@ -7166,78 +7172,82 @@
       <c r="IU67"/>
       <c r="IV67"/>
     </row>
-    <row r="68" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="69" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="70" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="71" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="72" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="73" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="74" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="75" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="76" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="77" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="78" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="79" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="80" spans="1:256" ht="22.35" customHeight="1"/>
-    <row r="81" ht="22.35" customHeight="1"/>
-    <row r="82" ht="22.35" customHeight="1"/>
-    <row r="83" ht="22.35" customHeight="1"/>
-    <row r="84" ht="22.35" customHeight="1"/>
-    <row r="85" ht="22.35" customHeight="1"/>
-    <row r="86" ht="22.35" customHeight="1"/>
-    <row r="87" ht="22.35" customHeight="1"/>
-    <row r="88" ht="22.35" customHeight="1"/>
-    <row r="89" ht="22.35" customHeight="1"/>
-    <row r="90" ht="22.35" customHeight="1"/>
-    <row r="91" ht="22.35" customHeight="1"/>
-    <row r="92" ht="22.35" customHeight="1"/>
-    <row r="93" ht="22.35" customHeight="1"/>
-    <row r="94" ht="22.35" customHeight="1"/>
-    <row r="95" ht="22.35" customHeight="1"/>
-    <row r="96" ht="22.35" customHeight="1"/>
-    <row r="97" ht="22.35" customHeight="1"/>
-    <row r="98" ht="22.35" customHeight="1"/>
-    <row r="99" ht="22.35" customHeight="1"/>
-    <row r="100" ht="22.35" customHeight="1"/>
-    <row r="101" ht="22.35" customHeight="1"/>
-    <row r="102" ht="22.35" customHeight="1"/>
-    <row r="103" ht="22.35" customHeight="1"/>
-    <row r="104" ht="22.35" customHeight="1"/>
-    <row r="105" ht="22.35" customHeight="1"/>
-    <row r="106" ht="22.35" customHeight="1"/>
-    <row r="107" ht="22.35" customHeight="1"/>
-    <row r="108" ht="22.35" customHeight="1"/>
-    <row r="109" ht="22.35" customHeight="1"/>
-    <row r="110" ht="22.35" customHeight="1"/>
-    <row r="111" ht="22.35" customHeight="1"/>
-    <row r="112" ht="22.35" customHeight="1"/>
-    <row r="113" ht="22.35" customHeight="1"/>
-    <row r="114" ht="22.35" customHeight="1"/>
-    <row r="115" ht="22.35" customHeight="1"/>
-    <row r="116" ht="22.35" customHeight="1"/>
-    <row r="117" ht="22.35" customHeight="1"/>
-    <row r="118" ht="22.35" customHeight="1"/>
-    <row r="119" ht="22.35" customHeight="1"/>
-    <row r="120" ht="22.35" customHeight="1"/>
-    <row r="121" ht="22.35" customHeight="1"/>
-    <row r="122" ht="22.35" customHeight="1"/>
+    <row r="68" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="69" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="70" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="71" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="72" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="73" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="74" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="75" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="76" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="77" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="78" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="79" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="80" spans="1:256" ht="22.25" customHeight="1"/>
+    <row r="81" ht="22.25" customHeight="1"/>
+    <row r="82" ht="22.25" customHeight="1"/>
+    <row r="83" ht="22.25" customHeight="1"/>
+    <row r="84" ht="22.25" customHeight="1"/>
+    <row r="85" ht="22.25" customHeight="1"/>
+    <row r="86" ht="22.25" customHeight="1"/>
+    <row r="87" ht="22.25" customHeight="1"/>
+    <row r="88" ht="22.25" customHeight="1"/>
+    <row r="89" ht="22.25" customHeight="1"/>
+    <row r="90" ht="22.25" customHeight="1"/>
+    <row r="91" ht="22.25" customHeight="1"/>
+    <row r="92" ht="22.25" customHeight="1"/>
+    <row r="93" ht="22.25" customHeight="1"/>
+    <row r="94" ht="22.25" customHeight="1"/>
+    <row r="95" ht="22.25" customHeight="1"/>
+    <row r="96" ht="22.25" customHeight="1"/>
+    <row r="97" ht="22.25" customHeight="1"/>
+    <row r="98" ht="22.25" customHeight="1"/>
+    <row r="99" ht="22.25" customHeight="1"/>
+    <row r="100" ht="22.25" customHeight="1"/>
+    <row r="101" ht="22.25" customHeight="1"/>
+    <row r="102" ht="22.25" customHeight="1"/>
+    <row r="103" ht="22.25" customHeight="1"/>
+    <row r="104" ht="22.25" customHeight="1"/>
+    <row r="105" ht="22.25" customHeight="1"/>
+    <row r="106" ht="22.25" customHeight="1"/>
+    <row r="107" ht="22.25" customHeight="1"/>
+    <row r="108" ht="22.25" customHeight="1"/>
+    <row r="109" ht="22.25" customHeight="1"/>
+    <row r="110" ht="22.25" customHeight="1"/>
+    <row r="111" ht="22.25" customHeight="1"/>
+    <row r="112" ht="22.25" customHeight="1"/>
+    <row r="113" ht="22.25" customHeight="1"/>
+    <row r="114" ht="22.25" customHeight="1"/>
+    <row r="115" ht="22.25" customHeight="1"/>
+    <row r="116" ht="22.25" customHeight="1"/>
+    <row r="117" ht="22.25" customHeight="1"/>
+    <row r="118" ht="22.25" customHeight="1"/>
+    <row r="119" ht="22.25" customHeight="1"/>
+    <row r="120" ht="22.25" customHeight="1"/>
+    <row r="121" ht="22.25" customHeight="1"/>
+    <row r="122" ht="22.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:BG1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -7254,26 +7264,22 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:BG1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -7292,100 +7298,100 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="12.5" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" customWidth="1"/>
-    <col min="33" max="33" width="10.42578125" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" customWidth="1"/>
+    <col min="28" max="28" width="15.5" customWidth="1"/>
+    <col min="29" max="29" width="16.1640625" customWidth="1"/>
+    <col min="31" max="31" width="10.5" customWidth="1"/>
+    <col min="32" max="32" width="14.1640625" customWidth="1"/>
+    <col min="33" max="33" width="10.5" customWidth="1"/>
+    <col min="34" max="34" width="14.5" customWidth="1"/>
+    <col min="35" max="35" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="1:40" ht="20" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="18"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-    </row>
-    <row r="2" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+    </row>
+    <row r="2" spans="1:40" ht="20" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="30"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
@@ -7398,180 +7404,195 @@
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="19"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-    </row>
-    <row r="3" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+    </row>
+    <row r="3" spans="1:40" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:40" ht="20" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:40" ht="20" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:40" ht="20" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:40" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:40" ht="20" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:40" ht="20" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:40" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:40" ht="20" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:40" ht="20" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:40" ht="20" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:40" ht="20" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:40" ht="20" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:40" ht="20" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:1" ht="20" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:1" ht="20" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:1" ht="20" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:1" ht="20" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:1" ht="20" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:1" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:1" ht="20" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:1" ht="20" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:1" ht="20" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:1" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:1" ht="20" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:1" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:1" ht="20" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:1" ht="20" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:1" ht="20" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:1" ht="20" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:1" ht="20" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="B1:B2"/>
@@ -7584,21 +7605,6 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7614,207 +7620,207 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="30"/>
-    </row>
-    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:1" ht="20" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="20" customHeight="1">
+      <c r="A2" s="32"/>
+    </row>
+    <row r="3" spans="1:1" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:1" ht="20" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:1" ht="20" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:1" ht="20" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:1" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:1" ht="20" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:1" ht="20" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:1" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:1" ht="20" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:1" ht="20" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:1" ht="20" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:1" ht="20" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:1" ht="20" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:1" ht="20" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:1" ht="20" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:1" ht="20" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:1" ht="20" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:1" ht="20" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:1" ht="20" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:1" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:1" ht="20" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:1" ht="20" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:1" ht="20" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:1" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:1" ht="20" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:1" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:1" ht="20" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:1" ht="20" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:1" ht="20" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:1" ht="20" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:1" ht="20" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="48" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" ht="20.100000000000001" customHeight="1"/>
-    <row r="51" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" ht="20.100000000000001" customHeight="1"/>
-    <row r="55" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:1" ht="20" customHeight="1"/>
+    <row r="35" spans="1:1" ht="20" customHeight="1"/>
+    <row r="36" spans="1:1" ht="20" customHeight="1"/>
+    <row r="37" spans="1:1" ht="20" customHeight="1"/>
+    <row r="38" spans="1:1" ht="20" customHeight="1"/>
+    <row r="39" spans="1:1" ht="20" customHeight="1"/>
+    <row r="40" spans="1:1" ht="20" customHeight="1"/>
+    <row r="41" spans="1:1" ht="20" customHeight="1"/>
+    <row r="42" spans="1:1" ht="20" customHeight="1"/>
+    <row r="43" spans="1:1" ht="20" customHeight="1"/>
+    <row r="44" spans="1:1" ht="20" customHeight="1"/>
+    <row r="45" spans="1:1" ht="20" customHeight="1"/>
+    <row r="46" spans="1:1" ht="20" customHeight="1"/>
+    <row r="47" spans="1:1" ht="20" customHeight="1"/>
+    <row r="48" spans="1:1" ht="20" customHeight="1"/>
+    <row r="49" ht="20" customHeight="1"/>
+    <row r="50" ht="20" customHeight="1"/>
+    <row r="51" ht="20" customHeight="1"/>
+    <row r="52" ht="20" customHeight="1"/>
+    <row r="53" ht="20" customHeight="1"/>
+    <row r="54" ht="20" customHeight="1"/>
+    <row r="55" ht="20" customHeight="1"/>
+    <row r="56" ht="20" customHeight="1"/>
+    <row r="57" ht="20" customHeight="1"/>
+    <row r="58" ht="20" customHeight="1"/>
+    <row r="59" ht="20" customHeight="1"/>
+    <row r="60" ht="20" customHeight="1"/>
+    <row r="61" ht="20" customHeight="1"/>
+    <row r="62" ht="20" customHeight="1"/>
+    <row r="63" ht="20" customHeight="1"/>
+    <row r="64" ht="20" customHeight="1"/>
+    <row r="65" ht="20" customHeight="1"/>
+    <row r="66" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -7832,26 +7838,26 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="30"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="32"/>
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
@@ -7890,7 +7896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
@@ -7904,17 +7910,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
@@ -7968,7 +7974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
@@ -7982,7 +7988,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
@@ -8010,17 +8016,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
@@ -8034,7 +8040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
@@ -8062,12 +8068,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
@@ -8109,7 +8115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
@@ -8137,7 +8143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
@@ -8165,7 +8171,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
@@ -8221,7 +8227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
@@ -8249,39 +8255,39 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" ht="20.100000000000001" customHeight="1"/>
-    <row r="51" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" ht="20.100000000000001" customHeight="1"/>
-    <row r="55" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:4" ht="20" customHeight="1"/>
+    <row r="35" spans="1:4" ht="20" customHeight="1"/>
+    <row r="36" spans="1:4" ht="20" customHeight="1"/>
+    <row r="37" spans="1:4" ht="20" customHeight="1"/>
+    <row r="38" spans="1:4" ht="20" customHeight="1"/>
+    <row r="39" spans="1:4" ht="20" customHeight="1"/>
+    <row r="40" spans="1:4" ht="20" customHeight="1"/>
+    <row r="41" spans="1:4" ht="20" customHeight="1"/>
+    <row r="42" spans="1:4" ht="20" customHeight="1"/>
+    <row r="43" spans="1:4" ht="20" customHeight="1"/>
+    <row r="44" spans="1:4" ht="20" customHeight="1"/>
+    <row r="45" spans="1:4" ht="20" customHeight="1"/>
+    <row r="46" spans="1:4" ht="20" customHeight="1"/>
+    <row r="47" spans="1:4" ht="20" customHeight="1"/>
+    <row r="48" spans="1:4" ht="20" customHeight="1"/>
+    <row r="49" ht="20" customHeight="1"/>
+    <row r="50" ht="20" customHeight="1"/>
+    <row r="51" ht="20" customHeight="1"/>
+    <row r="52" ht="20" customHeight="1"/>
+    <row r="53" ht="20" customHeight="1"/>
+    <row r="54" ht="20" customHeight="1"/>
+    <row r="55" ht="20" customHeight="1"/>
+    <row r="56" ht="20" customHeight="1"/>
+    <row r="57" ht="20" customHeight="1"/>
+    <row r="58" ht="20" customHeight="1"/>
+    <row r="59" ht="20" customHeight="1"/>
+    <row r="60" ht="20" customHeight="1"/>
+    <row r="61" ht="20" customHeight="1"/>
+    <row r="62" ht="20" customHeight="1"/>
+    <row r="63" ht="20" customHeight="1"/>
+    <row r="64" ht="20" customHeight="1"/>
+    <row r="65" ht="20" customHeight="1"/>
+    <row r="66" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -8300,26 +8306,26 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="30"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="32"/>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
@@ -8330,37 +8336,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -8372,22 +8378,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
@@ -8401,139 +8407,139 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:1" ht="20" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:1" ht="20" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:1" ht="20" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:1" ht="20" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:1" ht="20" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:1" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:1" ht="20" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:1" ht="20" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:1" ht="20" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:1" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:1" ht="20" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:1" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:1" ht="20" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:1" ht="20" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:1" ht="20" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:1" ht="20" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:1" ht="20" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="48" spans="1:1" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" ht="20.100000000000001" customHeight="1"/>
-    <row r="51" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" ht="20.100000000000001" customHeight="1"/>
-    <row r="55" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:1" ht="20" customHeight="1"/>
+    <row r="35" spans="1:1" ht="20" customHeight="1"/>
+    <row r="36" spans="1:1" ht="20" customHeight="1"/>
+    <row r="37" spans="1:1" ht="20" customHeight="1"/>
+    <row r="38" spans="1:1" ht="20" customHeight="1"/>
+    <row r="39" spans="1:1" ht="20" customHeight="1"/>
+    <row r="40" spans="1:1" ht="20" customHeight="1"/>
+    <row r="41" spans="1:1" ht="20" customHeight="1"/>
+    <row r="42" spans="1:1" ht="20" customHeight="1"/>
+    <row r="43" spans="1:1" ht="20" customHeight="1"/>
+    <row r="44" spans="1:1" ht="20" customHeight="1"/>
+    <row r="45" spans="1:1" ht="20" customHeight="1"/>
+    <row r="46" spans="1:1" ht="20" customHeight="1"/>
+    <row r="47" spans="1:1" ht="20" customHeight="1"/>
+    <row r="48" spans="1:1" ht="20" customHeight="1"/>
+    <row r="49" ht="20" customHeight="1"/>
+    <row r="50" ht="20" customHeight="1"/>
+    <row r="51" ht="20" customHeight="1"/>
+    <row r="52" ht="20" customHeight="1"/>
+    <row r="53" ht="20" customHeight="1"/>
+    <row r="54" ht="20" customHeight="1"/>
+    <row r="55" ht="20" customHeight="1"/>
+    <row r="56" ht="20" customHeight="1"/>
+    <row r="57" ht="20" customHeight="1"/>
+    <row r="58" ht="20" customHeight="1"/>
+    <row r="59" ht="20" customHeight="1"/>
+    <row r="60" ht="20" customHeight="1"/>
+    <row r="61" ht="20" customHeight="1"/>
+    <row r="62" ht="20" customHeight="1"/>
+    <row r="63" ht="20" customHeight="1"/>
+    <row r="64" ht="20" customHeight="1"/>
+    <row r="65" ht="20" customHeight="1"/>
+    <row r="66" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -8548,30 +8554,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE599D3-AEA8-4AC9-8B23-0C5F81D62E07}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="30"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="32"/>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
@@ -8596,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
@@ -8624,17 +8630,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
@@ -8648,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -8662,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
@@ -8676,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
@@ -8704,12 +8710,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
@@ -8723,17 +8729,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
@@ -8761,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
@@ -8775,12 +8784,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>108</v>
       </c>
@@ -8794,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
@@ -8808,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
@@ -8822,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
@@ -8836,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>119</v>
       </c>
@@ -8850,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
@@ -8864,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
@@ -8878,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>125</v>
       </c>
@@ -8892,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
@@ -8906,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
@@ -8920,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>132</v>
       </c>
@@ -8934,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>133</v>
       </c>
@@ -8948,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
@@ -8962,39 +8971,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" ht="20.100000000000001" customHeight="1"/>
-    <row r="51" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" ht="20.100000000000001" customHeight="1"/>
-    <row r="55" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:4" ht="20" customHeight="1"/>
+    <row r="35" spans="1:4" ht="20" customHeight="1"/>
+    <row r="36" spans="1:4" ht="20" customHeight="1"/>
+    <row r="37" spans="1:4" ht="20" customHeight="1"/>
+    <row r="38" spans="1:4" ht="20" customHeight="1"/>
+    <row r="39" spans="1:4" ht="20" customHeight="1"/>
+    <row r="40" spans="1:4" ht="20" customHeight="1"/>
+    <row r="41" spans="1:4" ht="20" customHeight="1"/>
+    <row r="42" spans="1:4" ht="20" customHeight="1"/>
+    <row r="43" spans="1:4" ht="20" customHeight="1"/>
+    <row r="44" spans="1:4" ht="20" customHeight="1"/>
+    <row r="45" spans="1:4" ht="20" customHeight="1"/>
+    <row r="46" spans="1:4" ht="20" customHeight="1"/>
+    <row r="47" spans="1:4" ht="20" customHeight="1"/>
+    <row r="48" spans="1:4" ht="20" customHeight="1"/>
+    <row r="49" ht="20" customHeight="1"/>
+    <row r="50" ht="20" customHeight="1"/>
+    <row r="51" ht="20" customHeight="1"/>
+    <row r="52" ht="20" customHeight="1"/>
+    <row r="53" ht="20" customHeight="1"/>
+    <row r="54" ht="20" customHeight="1"/>
+    <row r="55" ht="20" customHeight="1"/>
+    <row r="56" ht="20" customHeight="1"/>
+    <row r="57" ht="20" customHeight="1"/>
+    <row r="58" ht="20" customHeight="1"/>
+    <row r="59" ht="20" customHeight="1"/>
+    <row r="60" ht="20" customHeight="1"/>
+    <row r="61" ht="20" customHeight="1"/>
+    <row r="62" ht="20" customHeight="1"/>
+    <row r="63" ht="20" customHeight="1"/>
+    <row r="64" ht="20" customHeight="1"/>
+    <row r="65" ht="20" customHeight="1"/>
+    <row r="66" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>

--- a/CPU-Guide/31连接表.xlsx
+++ b/CPU-Guide/31连接表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Git/CPU54-Static-Pipeline/CPU-Guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/CPU54/CPU-Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8A22B4-E2EC-E547-85D1-74925FD76BEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C7F80-56DB-E446-BB94-630C0DB29F29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16060" windowHeight="28800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22360" yWindow="2120" windowWidth="29000" windowHeight="21980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="141">
   <si>
     <t>表格 1</t>
   </si>
@@ -443,6 +443,14 @@
   </si>
   <si>
     <t>ADDI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDU</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -490,6 +498,12 @@
       <name val="更纱黑体 SC"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -656,7 +670,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -717,8 +731,8 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,15 +741,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,6 +755,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,8 +779,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,8 +1944,8 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="K45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
@@ -1942,73 +1959,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="31" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
     </row>
     <row r="2" spans="1:256" ht="22.25" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
@@ -2066,19 +2083,19 @@
         <v>16</v>
       </c>
       <c r="AC2" s="23"/>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="28" t="s">
         <v>21</v>
       </c>
       <c r="HX2"/>
@@ -2177,11 +2194,11 @@
       <c r="AC3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
       <c r="HX3"/>
       <c r="HY3"/>
       <c r="HZ3"/>
@@ -2296,7 +2313,7 @@
       <c r="IV4"/>
     </row>
     <row r="5" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2379,7 +2396,7 @@
       <c r="IV5"/>
     </row>
     <row r="6" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
@@ -2452,7 +2469,7 @@
       <c r="IV6"/>
     </row>
     <row r="7" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2535,7 +2552,7 @@
       <c r="IV7"/>
     </row>
     <row r="8" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
@@ -2608,7 +2625,7 @@
       <c r="IV8"/>
     </row>
     <row r="9" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2691,7 +2708,7 @@
       <c r="IV9"/>
     </row>
     <row r="10" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
@@ -2764,7 +2781,7 @@
       <c r="IV10"/>
     </row>
     <row r="11" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2847,7 +2864,7 @@
       <c r="IV11"/>
     </row>
     <row r="12" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
@@ -2926,7 +2943,7 @@
       <c r="IV12"/>
     </row>
     <row r="13" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
@@ -2995,7 +3012,7 @@
       <c r="IV13"/>
     </row>
     <row r="14" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -3078,7 +3095,7 @@
       <c r="IV14"/>
     </row>
     <row r="15" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
@@ -3157,7 +3174,7 @@
       <c r="IV15"/>
     </row>
     <row r="16" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
@@ -3226,7 +3243,7 @@
       <c r="IV16"/>
     </row>
     <row r="17" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3303,7 +3320,7 @@
       <c r="IV17"/>
     </row>
     <row r="18" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
@@ -3376,7 +3393,7 @@
       <c r="IV18"/>
     </row>
     <row r="19" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3459,7 +3476,7 @@
       <c r="IV19"/>
     </row>
     <row r="20" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
@@ -3532,7 +3549,7 @@
       <c r="IV20"/>
     </row>
     <row r="21" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
@@ -3605,7 +3622,7 @@
       <c r="IV21"/>
     </row>
     <row r="22" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3688,7 +3705,7 @@
       <c r="IV22"/>
     </row>
     <row r="23" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
@@ -3761,7 +3778,7 @@
       <c r="IV23"/>
     </row>
     <row r="24" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3844,7 +3861,7 @@
       <c r="IV24"/>
     </row>
     <row r="25" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
@@ -3917,7 +3934,7 @@
       <c r="IV25"/>
     </row>
     <row r="26" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4000,7 +4017,7 @@
       <c r="IV26"/>
     </row>
     <row r="27" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
@@ -4073,7 +4090,7 @@
       <c r="IV27"/>
     </row>
     <row r="28" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4156,7 +4173,7 @@
       <c r="IV28"/>
     </row>
     <row r="29" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="8" t="s">
         <v>50</v>
       </c>
@@ -4229,7 +4246,7 @@
       <c r="IV29"/>
     </row>
     <row r="30" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4312,7 +4329,7 @@
       <c r="IV30"/>
     </row>
     <row r="31" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="8" t="s">
         <v>50</v>
       </c>
@@ -4458,7 +4475,7 @@
       <c r="IV32"/>
     </row>
     <row r="33" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4533,7 +4550,7 @@
       <c r="IV33"/>
     </row>
     <row r="34" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A34" s="30"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
@@ -4604,7 +4621,7 @@
       <c r="IV34"/>
     </row>
     <row r="35" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -4687,7 +4704,7 @@
       <c r="IV35"/>
     </row>
     <row r="36" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
@@ -4760,7 +4777,7 @@
       <c r="IV36"/>
     </row>
     <row r="37" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -4843,7 +4860,7 @@
       <c r="IV37"/>
     </row>
     <row r="38" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
@@ -4916,7 +4933,7 @@
       <c r="IV38"/>
     </row>
     <row r="39" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -4999,7 +5016,7 @@
       <c r="IV39"/>
     </row>
     <row r="40" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
@@ -5145,7 +5162,7 @@
       <c r="IV41"/>
     </row>
     <row r="42" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -5228,7 +5245,7 @@
       <c r="IV42"/>
     </row>
     <row r="43" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
@@ -5301,7 +5318,7 @@
       <c r="IV43"/>
     </row>
     <row r="44" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -5384,7 +5401,7 @@
       <c r="IV44"/>
     </row>
     <row r="45" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="8" t="s">
         <v>50</v>
       </c>
@@ -5457,7 +5474,7 @@
       <c r="IV45"/>
     </row>
     <row r="46" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -5540,7 +5557,7 @@
       <c r="IV46"/>
     </row>
     <row r="47" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
@@ -5613,7 +5630,7 @@
       <c r="IV47"/>
     </row>
     <row r="48" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -5696,7 +5713,7 @@
       <c r="IV48"/>
     </row>
     <row r="49" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="8" t="s">
         <v>50</v>
       </c>
@@ -5769,7 +5786,7 @@
       <c r="IV49"/>
     </row>
     <row r="50" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="24" t="s">
         <v>119</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5852,7 +5869,7 @@
       <c r="IV50"/>
     </row>
     <row r="51" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -5925,7 +5942,7 @@
       <c r="IV51"/>
     </row>
     <row r="52" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="24" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -6008,7 +6025,7 @@
       <c r="IV52"/>
     </row>
     <row r="53" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
@@ -6081,7 +6098,7 @@
       <c r="IV53"/>
     </row>
     <row r="54" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -6164,7 +6181,7 @@
       <c r="IV54"/>
     </row>
     <row r="55" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
@@ -6237,7 +6254,7 @@
       <c r="IV55"/>
     </row>
     <row r="56" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -6320,7 +6337,7 @@
       <c r="IV56"/>
     </row>
     <row r="57" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
@@ -6393,7 +6410,7 @@
       <c r="IV57"/>
     </row>
     <row r="58" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -6476,7 +6493,7 @@
       <c r="IV58"/>
     </row>
     <row r="59" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A59" s="28"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -6549,7 +6566,7 @@
       <c r="IV59"/>
     </row>
     <row r="60" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -6632,7 +6649,7 @@
       <c r="IV60"/>
     </row>
     <row r="61" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A61" s="28"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>50</v>
       </c>
@@ -6705,7 +6722,7 @@
       <c r="IV61"/>
     </row>
     <row r="62" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -6788,7 +6805,7 @@
       <c r="IV62"/>
     </row>
     <row r="63" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A63" s="28"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>50</v>
       </c>
@@ -6861,7 +6878,7 @@
       <c r="IV63"/>
     </row>
     <row r="64" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -6944,7 +6961,7 @@
       <c r="IV64"/>
     </row>
     <row r="65" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>50</v>
       </c>
@@ -7017,7 +7034,7 @@
       <c r="IV65"/>
     </row>
     <row r="66" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -7100,7 +7117,7 @@
       <c r="IV66"/>
     </row>
     <row r="67" spans="1:256" ht="22.25" customHeight="1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="8" t="s">
         <v>50</v>
       </c>
@@ -7229,41 +7246,6 @@
     <row r="122" ht="22.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -7280,6 +7262,41 @@
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -7292,10 +7309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D981BA4-7AFE-4898-8B8F-D4F0C412BBBE}">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -7324,74 +7341,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="20" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="18"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="20" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="32"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
@@ -7404,22 +7421,22 @@
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="19"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -7576,23 +7593,13 @@
         <v>135</v>
       </c>
     </row>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="B1:B2"/>
@@ -7605,6 +7612,21 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:V1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7617,7 +7639,7 @@
   <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -7626,12 +7648,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -7789,7 +7811,11 @@
       </c>
     </row>
     <row r="34" spans="1:1" ht="20" customHeight="1"/>
-    <row r="35" spans="1:1" ht="20" customHeight="1"/>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="36" spans="1:1" ht="20" customHeight="1"/>
     <row r="37" spans="1:1" ht="20" customHeight="1"/>
     <row r="38" spans="1:1" ht="20" customHeight="1"/>
@@ -7832,10 +7858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD65067-36B5-4773-945A-2DA6E46279FB}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -7846,8 +7872,8 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="20" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -7855,9 +7881,12 @@
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="32"/>
+      <c r="G1" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="33"/>
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
@@ -7868,7 +7897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
@@ -7882,7 +7911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
@@ -7896,7 +7925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
@@ -7910,17 +7939,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
@@ -7932,7 +7961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -7946,7 +7975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
@@ -7960,7 +7989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
@@ -7974,7 +8003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
@@ -7988,7 +8017,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
@@ -8002,7 +8031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
@@ -8016,12 +8045,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
@@ -8241,7 +8270,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
@@ -8255,21 +8284,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1"/>
-    <row r="35" spans="1:4" ht="20" customHeight="1"/>
-    <row r="36" spans="1:4" ht="20" customHeight="1"/>
-    <row r="37" spans="1:4" ht="20" customHeight="1"/>
-    <row r="38" spans="1:4" ht="20" customHeight="1"/>
-    <row r="39" spans="1:4" ht="20" customHeight="1"/>
-    <row r="40" spans="1:4" ht="20" customHeight="1"/>
-    <row r="41" spans="1:4" ht="20" customHeight="1"/>
-    <row r="42" spans="1:4" ht="20" customHeight="1"/>
-    <row r="43" spans="1:4" ht="20" customHeight="1"/>
-    <row r="44" spans="1:4" ht="20" customHeight="1"/>
-    <row r="45" spans="1:4" ht="20" customHeight="1"/>
-    <row r="46" spans="1:4" ht="20" customHeight="1"/>
-    <row r="47" spans="1:4" ht="20" customHeight="1"/>
-    <row r="48" spans="1:4" ht="20" customHeight="1"/>
+    <row r="34" spans="1:6" ht="20" customHeight="1"/>
+    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1"/>
+    <row r="37" spans="1:6" ht="20" customHeight="1"/>
+    <row r="38" spans="1:6" ht="20" customHeight="1"/>
+    <row r="39" spans="1:6" ht="20" customHeight="1"/>
+    <row r="40" spans="1:6" ht="20" customHeight="1"/>
+    <row r="41" spans="1:6" ht="20" customHeight="1"/>
+    <row r="42" spans="1:6" ht="20" customHeight="1"/>
+    <row r="43" spans="1:6" ht="20" customHeight="1"/>
+    <row r="44" spans="1:6" ht="20" customHeight="1"/>
+    <row r="45" spans="1:6" ht="20" customHeight="1"/>
+    <row r="46" spans="1:6" ht="20" customHeight="1"/>
+    <row r="47" spans="1:6" ht="20" customHeight="1"/>
+    <row r="48" spans="1:6" ht="20" customHeight="1"/>
     <row r="49" ht="20" customHeight="1"/>
     <row r="50" ht="20" customHeight="1"/>
     <row r="51" ht="20" customHeight="1"/>
@@ -8303,7 +8348,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -8315,7 +8360,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -8325,7 +8370,7 @@
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
@@ -8508,7 +8553,11 @@
       </c>
     </row>
     <row r="34" spans="1:1" ht="20" customHeight="1"/>
-    <row r="35" spans="1:1" ht="20" customHeight="1"/>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="36" spans="1:1" ht="20" customHeight="1"/>
     <row r="37" spans="1:1" ht="20" customHeight="1"/>
     <row r="38" spans="1:1" ht="20" customHeight="1"/>
@@ -8554,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE599D3-AEA8-4AC9-8B23-0C5F81D62E07}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -8567,7 +8616,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -8577,7 +8626,7 @@
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
@@ -8738,7 +8787,7 @@
       <c r="A16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="20">
         <v>31</v>
       </c>
     </row>
@@ -8972,7 +9021,20 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1"/>
-    <row r="35" spans="1:4" ht="20" customHeight="1"/>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="36" spans="1:4" ht="20" customHeight="1"/>
     <row r="37" spans="1:4" ht="20" customHeight="1"/>
     <row r="38" spans="1:4" ht="20" customHeight="1"/>
